--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ls5288\Documents\gasoline_blending\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ls5288_admin\Documents\gasoline_blending_lp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10AC91-F596-4080-843B-9E33D47EA0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB01CB-762C-4959-AB8D-860F7C59BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E1984E5B-7016-424F-934A-A795B63EEF6D}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E1984E5B-7016-424F-934A-A795B63EEF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Streams" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>price</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>avail</t>
+  </si>
+  <si>
+    <t>min_octane</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -531,7 +537,6 @@
         <v>30000</v>
       </c>
       <c r="H2">
-        <f>(B2+C2)/2</f>
         <v>92.5</v>
       </c>
     </row>
@@ -558,7 +563,6 @@
         <v>35000</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="0">(B3+C3)/2</f>
         <v>77</v>
       </c>
     </row>
@@ -582,10 +586,9 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
         <v>82.05</v>
       </c>
     </row>
@@ -612,7 +615,6 @@
         <v>60000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
         <v>94.1</v>
       </c>
     </row>
@@ -636,10 +638,9 @@
         <v>2.75</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
         <v>88.85</v>
       </c>
     </row>
@@ -666,7 +667,6 @@
         <v>70000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
         <v>84.6</v>
       </c>
     </row>
@@ -693,7 +693,6 @@
         <v>40000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
         <v>96.6</v>
       </c>
     </row>
@@ -707,7 +706,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
